--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H2">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J2">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6893159999999999</v>
+        <v>0.155697</v>
       </c>
       <c r="N2">
-        <v>2.067948</v>
+        <v>0.467091</v>
       </c>
       <c r="O2">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="P2">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="Q2">
-        <v>52.44490295175999</v>
+        <v>0.021018835505</v>
       </c>
       <c r="R2">
-        <v>472.00412656584</v>
+        <v>0.189169519545</v>
       </c>
       <c r="S2">
-        <v>0.1038939995032777</v>
+        <v>0.001317427542197134</v>
       </c>
       <c r="T2">
-        <v>0.1038939995032777</v>
+        <v>0.001317427542197134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H3">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J3">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.248877</v>
       </c>
       <c r="O3">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="P3">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="Q3">
-        <v>6.31173032974</v>
+        <v>0.011199326735</v>
       </c>
       <c r="R3">
-        <v>56.80557296766001</v>
+        <v>0.100793940615</v>
       </c>
       <c r="S3">
-        <v>0.01250361562011097</v>
+        <v>0.0007019561807429304</v>
       </c>
       <c r="T3">
-        <v>0.01250361562011097</v>
+        <v>0.0007019561807429304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>76.08252666666667</v>
+        <v>0.1349983333333333</v>
       </c>
       <c r="H4">
-        <v>228.24758</v>
+        <v>0.404995</v>
       </c>
       <c r="I4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="J4">
-        <v>0.95878149807566</v>
+        <v>0.06188478316908706</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.589049333333333</v>
+        <v>7.075048</v>
       </c>
       <c r="N4">
-        <v>16.767148</v>
+        <v>21.225144</v>
       </c>
       <c r="O4">
-        <v>0.8785983924835777</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="P4">
-        <v>0.8785983924835776</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="Q4">
-        <v>425.2289949446488</v>
+        <v>0.9551196882533333</v>
       </c>
       <c r="R4">
-        <v>3827.06095450184</v>
+        <v>8.596077194279999</v>
       </c>
       <c r="S4">
-        <v>0.8423838829522714</v>
+        <v>0.05986539944614699</v>
       </c>
       <c r="T4">
-        <v>0.8423838829522713</v>
+        <v>0.05986539944614699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.804223</v>
       </c>
       <c r="I5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J5">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6893159999999999</v>
+        <v>0.155697</v>
       </c>
       <c r="N5">
-        <v>2.067948</v>
+        <v>0.467091</v>
       </c>
       <c r="O5">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="P5">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="Q5">
-        <v>0.6443319271559999</v>
+        <v>0.145536369477</v>
       </c>
       <c r="R5">
-        <v>5.798987344404</v>
+        <v>1.309827325293</v>
       </c>
       <c r="S5">
-        <v>0.001276429493662452</v>
+        <v>0.009121990678064355</v>
       </c>
       <c r="T5">
-        <v>0.001276429493662451</v>
+        <v>0.009121990678064355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.804223</v>
       </c>
       <c r="I6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J6">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.248877</v>
       </c>
       <c r="O6">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="P6">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="Q6">
         <v>0.077545178619</v>
@@ -818,10 +818,10 @@
         <v>0.697906607571</v>
       </c>
       <c r="S6">
-        <v>0.0001536179551392153</v>
+        <v>0.004860409800198725</v>
       </c>
       <c r="T6">
-        <v>0.0001536179551392153</v>
+        <v>0.004860409800198725</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.804223</v>
       </c>
       <c r="I7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="J7">
-        <v>0.01177947704364805</v>
+        <v>0.4284959871424753</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.589049333333333</v>
+        <v>7.075048</v>
       </c>
       <c r="N7">
-        <v>16.767148</v>
+        <v>21.225144</v>
       </c>
       <c r="O7">
-        <v>0.8785983924835777</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="P7">
-        <v>0.8785983924835776</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="Q7">
-        <v>5.224313562889332</v>
+        <v>6.613337442568</v>
       </c>
       <c r="R7">
-        <v>47.01882206600399</v>
+        <v>59.520036983112</v>
       </c>
       <c r="S7">
-        <v>0.01034942959484638</v>
+        <v>0.4145135866642122</v>
       </c>
       <c r="T7">
-        <v>0.01034942959484638</v>
+        <v>0.4145135866642122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H8">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J8">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6893159999999999</v>
+        <v>0.155697</v>
       </c>
       <c r="N8">
-        <v>2.067948</v>
+        <v>0.467091</v>
       </c>
       <c r="O8">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="P8">
-        <v>0.1083604551316437</v>
+        <v>0.021288392311201</v>
       </c>
       <c r="Q8">
-        <v>1.610300997632</v>
+        <v>0.173089444779</v>
       </c>
       <c r="R8">
-        <v>14.492708978688</v>
+        <v>1.557805003011</v>
       </c>
       <c r="S8">
-        <v>0.003190026134703566</v>
+        <v>0.01084897409093951</v>
       </c>
       <c r="T8">
-        <v>0.003190026134703566</v>
+        <v>0.01084897409093951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H9">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J9">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.248877</v>
       </c>
       <c r="O9">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="P9">
-        <v>0.01304115238477858</v>
+        <v>0.01134295290047287</v>
       </c>
       <c r="Q9">
-        <v>0.193799303168</v>
+        <v>0.09222610101300001</v>
       </c>
       <c r="R9">
-        <v>1.744193728512</v>
+        <v>0.8300349091170001</v>
       </c>
       <c r="S9">
-        <v>0.0003839188095283921</v>
+        <v>0.005780586919531211</v>
       </c>
       <c r="T9">
-        <v>0.0003839188095283921</v>
+        <v>0.005780586919531211</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.336085333333334</v>
+        <v>1.111707</v>
       </c>
       <c r="H10">
-        <v>7.008256</v>
+        <v>3.335121</v>
       </c>
       <c r="I10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="J10">
-        <v>0.02943902488069198</v>
+        <v>0.5096192296884376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.589049333333333</v>
+        <v>7.075048</v>
       </c>
       <c r="N10">
-        <v>16.767148</v>
+        <v>21.225144</v>
       </c>
       <c r="O10">
-        <v>0.8785983924835777</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="P10">
-        <v>0.8785983924835776</v>
+        <v>0.9673686547883261</v>
       </c>
       <c r="Q10">
-        <v>13.05649617487644</v>
+        <v>7.865380386936</v>
       </c>
       <c r="R10">
-        <v>117.508465573888</v>
+        <v>70.78842348242399</v>
       </c>
       <c r="S10">
-        <v>0.02586507993646002</v>
+        <v>0.4929896686779669</v>
       </c>
       <c r="T10">
-        <v>0.02586507993646002</v>
+        <v>0.4929896686779669</v>
       </c>
     </row>
   </sheetData>
